--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/TENNESSEE_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/TENNESSEE_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1313"/>
+  <dimension ref="A1:D1307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,14 +465,14 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="9">
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="21">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="22">
@@ -726,13 +726,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -745,14 +745,14 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="35">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="47">
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="49">
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C63">
@@ -1239,14 +1239,14 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="67">
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="70">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="72">
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="76">
@@ -1376,13 +1376,13 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C77">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="87">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="88">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="90">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="96">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="98">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="102">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="103">
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="106">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="108">
@@ -1823,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C111">
@@ -1849,13 +1849,13 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C113">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="115">
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="120">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="125">
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="126">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="129">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="133">
@@ -2179,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C138">
@@ -2244,7 +2244,7 @@
         <v>104</v>
       </c>
       <c r="D142">
-        <v>0.009491649174043991</v>
+        <v>0.009491649174043992</v>
       </c>
     </row>
     <row r="143">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="145">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="146">
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="147">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="148">
@@ -2359,7 +2359,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C155">
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="D166">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="167">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C169">
@@ -2662,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="D173">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="174">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="177">
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="180">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C181">
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="184">
@@ -2805,20 +2805,20 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="186">
@@ -2857,46 +2857,46 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="192">
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="194">
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="197">
@@ -2993,12 +2993,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C207">
@@ -3122,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="D208">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="209">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C213">
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="215">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C219">
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C226">
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="232">
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="234">
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="235">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="236">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3590,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,14 +3609,14 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C249">
@@ -3726,14 +3726,14 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="256">
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="258">
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="259">
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="261">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C264">
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="268">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C269">
@@ -3921,20 +3921,20 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C271">
@@ -3947,14 +3947,14 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="273">
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="278">
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C283">
@@ -4167,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="D288">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="289">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C291">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C295">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C301">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C305">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C307">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C309">
@@ -4446,7 +4446,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C310">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C312">
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="314">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C317">
@@ -4609,7 +4609,7 @@
         <v>1047</v>
       </c>
       <c r="D322">
-        <v>0.09555535274253901</v>
+        <v>0.095555352742539</v>
       </c>
     </row>
     <row r="323">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C323">
@@ -4653,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C327">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C334">
@@ -4796,13 +4796,13 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,14 +4841,14 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="341">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C348">
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="352">
@@ -5017,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C355">
@@ -5056,26 +5056,26 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
       <c r="D357">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C358">
@@ -5114,14 +5114,14 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
       <c r="D361">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="362">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="364">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C373">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C375">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,14 +5348,14 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="380">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C383">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="387">
@@ -5548,14 +5548,14 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="395">
@@ -5607,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="D398">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C399">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C404">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C407">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C421">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C423">
@@ -5938,20 +5938,20 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C427">
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="D428">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="429">
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="D429">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="430">
@@ -6036,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="432">
@@ -6049,26 +6049,26 @@
         <v>1</v>
       </c>
       <c r="D432">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C434">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C438">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C440">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C441">
@@ -6179,13 +6179,13 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C443">
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="446">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C448">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C449">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C450">
@@ -6309,13 +6309,13 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C453">
@@ -6385,14 +6385,14 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C458">
         <v>1</v>
       </c>
       <c r="D458">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="459">
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="D459">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="460">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C462">
@@ -6496,20 +6496,20 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C467">
         <v>1</v>
       </c>
       <c r="D467">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="468">
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="469">
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D471">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="472">
@@ -6593,14 +6593,14 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C474">
         <v>1</v>
       </c>
       <c r="D474">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="475">
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="476">
@@ -6639,39 +6639,39 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
       <c r="D479">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C480">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="D485">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C488">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C491">
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="493">
@@ -6866,14 +6866,14 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="496">
@@ -6892,20 +6892,20 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C497">
         <v>1</v>
       </c>
       <c r="D497">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C498">
@@ -6918,14 +6918,14 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C499">
         <v>1</v>
       </c>
       <c r="D499">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="500">
@@ -6938,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="501">
@@ -6951,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="D501">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C502">
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="D503">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="504">
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="D504">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C507">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C510">
@@ -7074,14 +7074,14 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C511">
         <v>1</v>
       </c>
       <c r="D511">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="512">
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="D513">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="514">
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="517">
@@ -7159,13 +7159,13 @@
         <v>1</v>
       </c>
       <c r="D517">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,14 +7191,14 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="521">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C523">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C526">
@@ -7489,20 +7489,20 @@
         <v>1</v>
       </c>
       <c r="D542">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C543">
         <v>1</v>
       </c>
       <c r="D543">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="544">
@@ -7521,14 +7521,14 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C545">
         <v>1</v>
       </c>
       <c r="D545">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="546">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="548">
@@ -7632,7 +7632,7 @@
         <v>102</v>
       </c>
       <c r="D553">
-        <v>0.009309117459158529</v>
+        <v>0.009309117459158528</v>
       </c>
     </row>
     <row r="554">
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="555">
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="D557">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="558">
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="D558">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="559">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="D560">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="561">
@@ -7762,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="D563">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="564">
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="565">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="D575">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="576">
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="D577">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="578">
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="582">
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="586">
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="D590">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="591">
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="D594">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="595">
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="D596">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="597">
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="598">
@@ -8223,7 +8223,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C599">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="D600">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="601">
@@ -8256,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="D601">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="602">
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="D604">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="605">
@@ -8514,7 +8514,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C621">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="626">
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="D626">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="627">
@@ -8605,14 +8605,14 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C628">
         <v>1</v>
       </c>
       <c r="D628">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="629">
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="D629">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="630">
@@ -8657,7 +8657,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C632">
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="D634">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="635">
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="D635">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="636">
@@ -8722,7 +8722,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C637">
@@ -8735,7 +8735,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C638">
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="D640">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="641">
@@ -8857,14 +8857,14 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C647">
         <v>1</v>
       </c>
       <c r="D647">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="648">
@@ -8890,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="D649">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="650">
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="651">
@@ -8961,7 +8961,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C655">
@@ -9129,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="D667">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="668">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="D670">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="671">
@@ -9194,20 +9194,20 @@
         <v>1</v>
       </c>
       <c r="D672">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C673">
         <v>1</v>
       </c>
       <c r="D673">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="674">
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D674">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="675">
@@ -9246,13 +9246,13 @@
         <v>1</v>
       </c>
       <c r="D676">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C677">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C680">
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="D681">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="682">
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="D684">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="685">
@@ -9374,14 +9374,14 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C686">
         <v>1</v>
       </c>
       <c r="D686">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="687">
@@ -9394,20 +9394,20 @@
         <v>1</v>
       </c>
       <c r="D687">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C688">
         <v>10</v>
       </c>
       <c r="D688">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="689">
@@ -9426,20 +9426,20 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C690">
         <v>1</v>
       </c>
       <c r="D690">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,20 +9478,20 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C694">
         <v>1</v>
       </c>
       <c r="D694">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C696">
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="D697">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="698">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="D701">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="702">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="D702">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="703">
@@ -9602,13 +9602,13 @@
         <v>1</v>
       </c>
       <c r="D703">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C704">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C706">
@@ -9660,20 +9660,20 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C708">
         <v>1</v>
       </c>
       <c r="D708">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,20 +9699,20 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C711">
         <v>1</v>
       </c>
       <c r="D711">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,14 +9725,14 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="714">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="D716">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="717">
@@ -9784,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="D717">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="718">
@@ -9823,13 +9823,13 @@
         <v>1</v>
       </c>
       <c r="D720">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C721">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="D724">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="725">
@@ -9888,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="D725">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="726">
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="D727">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="728">
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="730">
@@ -9953,20 +9953,20 @@
         <v>1</v>
       </c>
       <c r="D730">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C731">
         <v>1</v>
       </c>
       <c r="D731">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="732">
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="D732">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="733">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="D733">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="734">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="D735">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="736">
@@ -10031,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="D736">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="737">
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="739">
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="D739">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="740">
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="D740">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="741">
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="D741">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="742">
@@ -10122,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="D743">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="744">
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="D744">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="745">
@@ -10148,20 +10148,20 @@
         <v>1</v>
       </c>
       <c r="D745">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C746">
         <v>1</v>
       </c>
       <c r="D746">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="747">
@@ -10213,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="D750">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="751">
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="D752">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="753">
@@ -10330,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="D759">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="760">
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="D763">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="764">
@@ -10408,7 +10408,7 @@
         <v>1</v>
       </c>
       <c r="D765">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="766">
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="D767">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="768">
@@ -10447,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="D768">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="769">
@@ -10460,13 +10460,13 @@
         <v>1</v>
       </c>
       <c r="D769">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C770">
@@ -10486,13 +10486,13 @@
         <v>1</v>
       </c>
       <c r="D771">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C772">
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="D773">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="774">
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="D775">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="776">
@@ -10564,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D777">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="778">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="D779">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="780">
@@ -10603,13 +10603,13 @@
         <v>1</v>
       </c>
       <c r="D780">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C781">
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="D782">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="783">
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="D783">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="784">
@@ -10655,7 +10655,7 @@
         <v>10</v>
       </c>
       <c r="D784">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="785">
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="D785">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="786">
@@ -10746,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="D791">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="792">
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="D794">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="795">
@@ -10824,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="D797">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="798">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="D799">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="800">
@@ -10986,14 +10986,14 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C810">
         <v>1</v>
       </c>
       <c r="D810">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="811">
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="D812">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="813">
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="D814">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="815">
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="D815">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="816">
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="D817">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="818">
@@ -11097,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="D818">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="819">
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="D821">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="822">
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="D823">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="824">
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="D825">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="826">
@@ -11214,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="D827">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="828">
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="D828">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="829">
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="D831">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="832">
@@ -11279,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="D832">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="833">
@@ -11292,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="D833">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="834">
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="D834">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="835">
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="D835">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="836">
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="D842">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="843">
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="D844">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="845">
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="D845">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="846">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C851">
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="D855">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="856">
@@ -11604,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="D857">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="858">
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="D858">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="859">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,20 +11675,20 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C863">
         <v>1</v>
       </c>
       <c r="D863">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,14 +11701,14 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C865">
         <v>1</v>
       </c>
       <c r="D865">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="866">
@@ -11721,13 +11721,13 @@
         <v>1</v>
       </c>
       <c r="D866">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C867">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C868">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C870">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C872">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="D878">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="879">
@@ -11921,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="D881">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="882">
@@ -11934,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="D882">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="883">
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="D883">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="884">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C886">
@@ -11999,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="D887">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="888">
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="D888">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="889">
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="D889">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="890">
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="D890">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="891">
@@ -12077,20 +12077,20 @@
         <v>1</v>
       </c>
       <c r="D893">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C894">
         <v>1</v>
       </c>
       <c r="D894">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="895">
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="D896">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="897">
@@ -12129,20 +12129,20 @@
         <v>1</v>
       </c>
       <c r="D897">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C898">
         <v>1</v>
       </c>
       <c r="D898">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="899">
@@ -12181,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="D901">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="902">
@@ -12239,14 +12239,14 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C906">
         <v>1</v>
       </c>
       <c r="D906">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="907">
@@ -12265,14 +12265,14 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C908">
         <v>1</v>
       </c>
       <c r="D908">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="909">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C910">
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="D911">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="912">
@@ -12337,20 +12337,20 @@
         <v>1</v>
       </c>
       <c r="D913">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C914">
         <v>1</v>
       </c>
       <c r="D914">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="915">
@@ -12363,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="D915">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="916">
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="D916">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="917">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D917">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="918">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C919">
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="D923">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="924">
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="D924">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="925">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="D925">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="926">
@@ -12506,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="D926">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="927">
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="D928">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="929">
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="D929">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="930">
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="D930">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="931">
@@ -12577,14 +12577,14 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C932">
         <v>1</v>
       </c>
       <c r="D932">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="933">
@@ -12603,14 +12603,14 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C934">
         <v>1</v>
       </c>
       <c r="D934">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="935">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="D936">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="937">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C940">
@@ -12694,14 +12694,14 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C941">
         <v>1</v>
       </c>
       <c r="D941">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="942">
@@ -12714,13 +12714,13 @@
         <v>1</v>
       </c>
       <c r="D942">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C943">
@@ -12740,13 +12740,13 @@
         <v>1</v>
       </c>
       <c r="D944">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C945">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C948">
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="950">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="D953">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="954">
@@ -12896,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="D956">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="957">
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="D957">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="958">
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="D963">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="964">
@@ -13000,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="D964">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="965">
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="D965">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="966">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C967">
@@ -13063,7 +13063,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C969">
@@ -13122,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="D973">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="974">
@@ -13141,7 +13141,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C975">
@@ -13154,7 +13154,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C976">
@@ -13174,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="D977">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="978">
@@ -13187,13 +13187,13 @@
         <v>1</v>
       </c>
       <c r="D978">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C979">
@@ -13232,7 +13232,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C982">
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="D984">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="985">
@@ -13322,7 +13322,7 @@
         <v>10</v>
       </c>
       <c r="D988">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="989">
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="D990">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="991">
@@ -13366,13 +13366,13 @@
         <v>10</v>
       </c>
       <c r="D991">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C992">
@@ -13450,7 +13450,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C998">
@@ -13496,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="D1001">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1002">
@@ -13574,13 +13574,13 @@
         <v>1</v>
       </c>
       <c r="D1007">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1008">
@@ -13652,13 +13652,13 @@
         <v>1</v>
       </c>
       <c r="D1013">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1014">
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="D1016">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1017">
@@ -13704,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="D1017">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1018">
@@ -13717,13 +13717,13 @@
         <v>10</v>
       </c>
       <c r="D1018">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1019">
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="D1020">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1021">
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="D1023">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1024">
@@ -13795,7 +13795,7 @@
         <v>10</v>
       </c>
       <c r="D1024">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1025">
@@ -13814,7 +13814,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1026">
@@ -13866,7 +13866,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1030">
@@ -13879,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1031">
@@ -13892,7 +13892,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1032">
@@ -13905,7 +13905,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1033">
@@ -13918,14 +13918,14 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1034">
         <v>10</v>
       </c>
       <c r="D1034">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1035">
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="D1041">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1042">
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="D1042">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1043">
@@ -14047,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="D1043">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1044">
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="D1045">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1046">
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="D1047">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1048">
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="D1048">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1049">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="D1049">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1050">
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="D1050">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1051">
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="D1051">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1052">
@@ -14195,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1055">
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="D1055">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1056">
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="D1057">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1058">
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="D1060">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1061">
@@ -14286,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="D1061">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1062">
@@ -14343,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="D1065">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1066">
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="D1068">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1069">
@@ -14414,14 +14414,14 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1071">
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1072">
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="D1073">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1074">
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="D1079">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1080">
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="D1080">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1081">
@@ -14556,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="D1081">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1082">
@@ -14595,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="D1084">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1085">
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="D1094">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1095">
@@ -14770,7 +14770,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1098">
@@ -14899,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="D1107">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1108">
@@ -14912,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="D1108">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1109">
@@ -14925,33 +14925,33 @@
         <v>1</v>
       </c>
       <c r="D1109">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1110">
         <v>1</v>
       </c>
       <c r="D1110">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1111">
         <v>1</v>
       </c>
       <c r="D1111">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1112">
@@ -14970,14 +14970,14 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1113">
         <v>1</v>
       </c>
       <c r="D1113">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1114">
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="D1116">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1117">
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1118">
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="D1123">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1124">
@@ -15144,7 +15144,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1126">
@@ -15183,14 +15183,14 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1129">
         <v>10</v>
       </c>
       <c r="D1129">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1130">
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="D1130">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1131">
@@ -15229,7 +15229,7 @@
         <v>1</v>
       </c>
       <c r="D1132">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1133">
@@ -15255,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="D1134">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1135">
@@ -15268,7 +15268,7 @@
         <v>1</v>
       </c>
       <c r="D1135">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1136">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1137">
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="D1138">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1139">
@@ -15320,7 +15320,7 @@
         <v>1</v>
       </c>
       <c r="D1139">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1140">
@@ -15352,14 +15352,14 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1142">
         <v>1</v>
       </c>
       <c r="D1142">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1143">
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="D1144">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1145">
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="D1145">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1146">
@@ -15424,20 +15424,20 @@
         <v>1</v>
       </c>
       <c r="D1147">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1148">
         <v>1</v>
       </c>
       <c r="D1148">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1149">
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="D1150">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1151">
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="D1151">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1152">
@@ -15502,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="D1153">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1154">
@@ -15515,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="D1154">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1155">
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="D1155">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1156">
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="D1158">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1159">
@@ -15580,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="D1159">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1160">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1162">
@@ -15736,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="D1171">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1172">
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="D1173">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1174">
@@ -15807,7 +15807,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1177">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1178">
@@ -15853,13 +15853,13 @@
         <v>1</v>
       </c>
       <c r="D1180">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1181">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1182">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1183">
@@ -15898,7 +15898,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1184">
@@ -16028,14 +16028,14 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1194">
         <v>1</v>
       </c>
       <c r="D1194">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1195">
@@ -16061,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="D1196">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1197">
@@ -16080,14 +16080,14 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1198">
         <v>1</v>
       </c>
       <c r="D1198">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1199">
@@ -16100,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="D1199">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1200">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1202">
@@ -16158,7 +16158,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1204">
@@ -16204,7 +16204,7 @@
         <v>10</v>
       </c>
       <c r="D1207">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1208">
@@ -16262,7 +16262,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1212">
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="D1213">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1214">
@@ -16314,7 +16314,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1216">
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="D1217">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1218">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1219">
@@ -16425,13 +16425,13 @@
         <v>10</v>
       </c>
       <c r="D1224">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1225">
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
       <c r="D1226">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1227">
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="D1228">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1229">
@@ -16555,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="D1234">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1235">
@@ -16581,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="D1236">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1237">
@@ -16594,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="D1237">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1238">
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="D1239">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1240">
@@ -16685,20 +16685,20 @@
         <v>1</v>
       </c>
       <c r="D1244">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1245">
         <v>1</v>
       </c>
       <c r="D1245">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1246">
@@ -16750,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="D1249">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1250">
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="D1251">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1252">
@@ -16808,7 +16808,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1254">
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1258">
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="D1260">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1261">
@@ -16932,7 +16932,7 @@
         <v>1039</v>
       </c>
       <c r="D1263">
-        <v>0.09482522588299717</v>
+        <v>0.09482522588299716</v>
       </c>
     </row>
     <row r="1264">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="D1266">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1267">
@@ -17000,7 +17000,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1268">
@@ -17026,14 +17026,14 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1270">
         <v>1</v>
       </c>
       <c r="D1270">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1271">
@@ -17059,7 +17059,7 @@
         <v>1</v>
       </c>
       <c r="D1272">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1273">
@@ -17137,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="D1278">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1279">
@@ -17169,14 +17169,14 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1281">
         <v>1</v>
       </c>
       <c r="D1281">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1282">
@@ -17202,7 +17202,7 @@
         <v>10</v>
       </c>
       <c r="D1283">
-        <v>0.0009126585744273067</v>
+        <v>0.0009126585744273068</v>
       </c>
     </row>
     <row r="1284">
@@ -17215,7 +17215,7 @@
         <v>1</v>
       </c>
       <c r="D1284">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1285">
@@ -17228,7 +17228,7 @@
         <v>1</v>
       </c>
       <c r="D1285">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1286">
@@ -17254,7 +17254,7 @@
         <v>1</v>
       </c>
       <c r="D1287">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1288">
@@ -17273,20 +17273,20 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1289">
         <v>1</v>
       </c>
       <c r="D1289">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1290">
@@ -17384,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="D1297">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1298">
@@ -17397,20 +17397,20 @@
         <v>1</v>
       </c>
       <c r="D1298">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1299">
         <v>1</v>
       </c>
       <c r="D1299">
-        <v>9.126585744273067E-05</v>
+        <v>9.126585744273068E-05</v>
       </c>
     </row>
     <row r="1300">
@@ -17429,7 +17429,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1301">
@@ -17515,41 +17515,6 @@
       </c>
       <c r="D1307">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
